--- a/biology/Histoire de la zoologie et de la botanique/Union_internationale_des_sciences_biologiques/Union_internationale_des_sciences_biologiques.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Union_internationale_des_sciences_biologiques/Union_internationale_des_sciences_biologiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Union internationale des sciences biologiques (UISB, en anglais International Union of Biological Sciences, IUBS) est une organisation non gouvernementale et sans but lucratif, créée en 1919 à Bruxelles, pour promouvoir les sciences biologiques internationalement.
@@ -514,9 +526,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les objectifs spécifiques de l'UISB sont les suivants[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les objectifs spécifiques de l'UISB sont les suivants:
 promouvoir l’étude de la biologie – fondamentale et appliquée, théorique, observationnelle, expérimentale et computationnelle;
 initier et faciliter des recherches, des actions éducatives et du renforcement des capacités, ainsi que d’autres activités scientifiques qui nécessitent une coopération internationale et interdisciplinaire;
 faciliter la recherche interdisciplinaire et collaborative et les discussions sur des sujets tels que l’évolution, la taxonomie, l’écologie, la biodiversité et d’autres sujets qui représentent la biologie unifiée;
@@ -552,7 +566,9 @@
           <t>Bref historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'UISB est créée en 1919 à la suite des travaux de la Conférence des Académies scientifiques interalliées qui se tient à Bruxelles. Après avoir défini ses statuts et son organisation en 1925, l'UISB adhère au Conseil international pour la science.
 De 1925 à 1939, l'UISB travaille sur deux thèmes principaux : l'information scientifique et l'environnement. Ce deuxième projet aboutit à la création du World Conservation Union ou UICN. Après avoir été en sommeil de 1935 à 1949, l’IUCB développe un programme très original de recherche internationale. Aujourd'hui, l'organisation travaille sur divers projets : Diversitas, Biosystematics, Species 2000, Bionomenclature, etc.
@@ -584,7 +600,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
